--- a/business_analyst/Stat BA SAS Cert Checklist.xlsx
+++ b/business_analyst/Stat BA SAS Cert Checklist.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sneola\Documents\SAS Training\BA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="6960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="6960" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="2" r:id="rId1"/>
+    <sheet name="Combined" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">12</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">12</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="82">
   <si>
     <t>ANOVA (Chapter 2 in Statistics 1 book)</t>
   </si>
@@ -268,6 +266,12 @@
   </si>
   <si>
     <t>Flash Card Created?</t>
+  </si>
+  <si>
+    <t>Optimize model performance through input selection (forward, backward)</t>
+  </si>
+  <si>
+    <t>Score new data sets using LOGISTIC and SCORE procedures (options and output)</t>
   </si>
 </sst>
 </file>
@@ -606,7 +610,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -616,16 +620,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="75.6640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -636,432 +642,855 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="75.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>